--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10380" activeTab="5"/>
+    <workbookView windowWidth="25600" windowHeight="10380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>负荷率，</t>
     </r>
     <r>
@@ -29,7 +35,6 @@
         <sz val="14"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>%</t>
@@ -37,6 +42,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>60%</t>
     </r>
     <r>
@@ -51,6 +62,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>冷冻水出水温度：</t>
     </r>
     <r>
@@ -58,7 +75,6 @@
         <sz val="14"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>T1</t>
@@ -365,13 +381,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湿球温度Ts/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -379,13 +399,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>干球温度T/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -436,13 +460,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -548,6 +572,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -556,13 +595,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -572,7 +604,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,43 +695,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -632,61 +702,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -705,31 +727,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,13 +793,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,49 +817,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,49 +871,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,6 +967,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -975,17 +1006,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1004,8 +1024,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1027,9 +1047,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,139 +1060,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1183,28 +1205,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
@@ -1244,28 +1257,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1611,432 +1621,432 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.75" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26">
+      <c r="B1" s="23">
         <v>1</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="23">
         <v>0.95</v>
       </c>
-      <c r="D1" s="26">
+      <c r="D1" s="23">
         <v>0.9</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="23">
         <v>0.85</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="23">
         <v>0.8</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="23">
         <v>0.75</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="23">
         <v>0.7</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="23">
         <v>0.65</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="56.25" spans="1:10">
-      <c r="A2" s="27" t="s">
+    <row r="2" ht="19.25" spans="1:10">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <v>7</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="24">
         <v>7.5</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="24">
         <v>8</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>8.5</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="24">
         <v>9</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="24">
         <v>9.5</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="24">
         <v>10</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="24">
         <v>10.5</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="16.75" spans="1:10">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" ht="16.75" spans="1:10">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="26">
         <v>2814</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" ht="16.75" spans="1:10">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" ht="16.75" spans="1:10">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="26">
         <v>30</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>80</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" ht="16.75" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="26">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" ht="16.75" spans="1:10">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" ht="16.75" spans="1:10">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="26">
         <v>533</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" ht="16.75" spans="1:10">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="26">
         <v>41</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" ht="16.75" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="26">
         <v>90</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" ht="16.75" spans="1:10">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="26">
         <v>3</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" ht="16.75" spans="1:10">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" ht="16.75" spans="1:10">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="26">
         <v>650</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" ht="16.75" spans="1:10">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="26">
         <v>23</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" ht="16.75" spans="1:10">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="26">
         <v>55</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" ht="16.75" spans="1:10">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="26">
         <v>3</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" ht="16.75" spans="1:10">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" ht="16.75" spans="1:10">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="26">
         <v>720</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" ht="16.75" spans="1:10">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="26">
         <v>500000</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" ht="16.75" spans="1:10">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="26">
         <v>55</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" ht="16.75" spans="1:10">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="26">
         <v>3</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" ht="16.75" spans="1:10">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" ht="19.25" spans="1:10">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="26">
         <v>4</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="26">
         <v>10</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" ht="19.25" spans="1:10">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="26">
         <v>4</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="26">
         <v>10</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2056,104 +2066,104 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="32" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>100</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>2813</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>541</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>6</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>10</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <v>34</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>38</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="21">
         <v>5.198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>90</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="19">
         <v>2532</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>483.4</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>6</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>9.6</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>34</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>37.59</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <v>5.238</v>
       </c>
     </row>
@@ -2181,316 +2191,316 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" ht="16" spans="1:12">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:12">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>533</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>78</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>498</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>56.8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>442</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="9">
         <v>39.9</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="9">
         <v>387</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <v>26.8</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <v>331</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="9">
         <v>16.8</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:12">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" ht="16" spans="1:12">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" ht="16" spans="1:12">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" ht="18.5" spans="1:12">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" ht="16" spans="1:12">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" ht="34" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:12">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>632</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>50</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>380</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>30.2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>338</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>21.3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="9">
         <v>297</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <v>14.2</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>254</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <v>9.1</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2514,26 +2524,26 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="34" customHeight="true" spans="1:5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D2" t="s">
@@ -2544,10 +2554,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>13.7</v>
       </c>
       <c r="D3">
@@ -2558,10 +2568,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>13.3</v>
       </c>
       <c r="D4">
@@ -2572,13 +2582,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>12.9</v>
       </c>
-      <c r="C5"/>
       <c r="D5">
         <v>620</v>
       </c>
@@ -2601,343 +2610,343 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" ht="16" spans="1:13">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="16" spans="1:13">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:13">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="16" spans="1:13">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:13">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="16" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" ht="16" spans="1:13">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" ht="16" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" ht="16" spans="1:13">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" ht="16" spans="1:13">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" ht="16" spans="1:13">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" ht="16" spans="1:13">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="16" spans="1:13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" ht="16" spans="1:13">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" ht="16" spans="1:13">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" ht="16" spans="1:13">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2956,7 +2965,7 @@
   <sheetPr/>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3025,224 +3034,224 @@
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:16">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2814</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>28</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" ht="14.5" spans="1:16">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2532.6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>27</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" ht="14.5" spans="1:16">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2251.2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>26</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" ht="14.5" spans="1:16">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1969.8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>25</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" ht="14.5" spans="1:16">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1688.4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>24</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" ht="14.5" spans="1:16">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1407</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>23</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" ht="14.5" spans="1:16">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1125.6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>22</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" ht="14.5" spans="1:16">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>844.2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" ht="14.5" spans="1:16">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>562.8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" ht="14.5" spans="1:16">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>281.4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>16</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10380" activeTab="4"/>
+    <workbookView windowWidth="25600" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <r>
       <rPr>
@@ -150,6 +150,18 @@
     <t>冷却水进出口温差T4-T3</t>
   </si>
   <si>
+    <t>单台冷水机组最低负荷Qq,Kw</t>
+  </si>
+  <si>
+    <t>单台冷冻水泵功率P20，KW</t>
+  </si>
+  <si>
+    <t>冷冻水泵变频频率下限值μ</t>
+  </si>
+  <si>
+    <t>冷冻水泵频率下限值 λ</t>
+  </si>
+  <si>
     <t>负荷百分比</t>
   </si>
   <si>
@@ -460,13 +472,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -565,13 +577,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -581,7 +586,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +675,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -603,37 +698,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -643,59 +707,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,37 +733,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,37 +781,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,37 +829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,31 +883,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,30 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1047,6 +1035,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1055,147 +1052,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1257,19 +1269,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1609,10 +1621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
@@ -2047,6 +2059,70 @@
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
+    </row>
+    <row r="26" ht="18.5" spans="1:10">
+      <c r="A26" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="26">
+        <v>422</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" ht="19.25" spans="1:10">
+      <c r="A27" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="26">
+        <v>90</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+    </row>
+    <row r="28" ht="19.25" spans="1:10">
+      <c r="A28" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+    </row>
+    <row r="29" ht="19.25" spans="1:10">
+      <c r="A29" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="26">
+        <v>0.65</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2067,51 +2143,51 @@
   <sheetData>
     <row r="1" ht="32" spans="1:8">
       <c r="A1" s="15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -2192,7 +2268,7 @@
   <sheetData>
     <row r="1" ht="18.5" spans="1:12">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2208,74 +2284,74 @@
     </row>
     <row r="2" ht="16" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:12">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:12">
@@ -2283,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9">
         <v>533</v>
@@ -2318,7 +2394,7 @@
     </row>
     <row r="5" ht="16" spans="1:12">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -2362,7 +2438,7 @@
     </row>
     <row r="8" ht="18.5" spans="1:12">
       <c r="A8" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2378,74 +2454,74 @@
     </row>
     <row r="9" ht="16" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="34" spans="1:12">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:12">
@@ -2453,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9">
         <v>632</v>
@@ -2488,7 +2564,7 @@
     </row>
     <row r="12" ht="16" spans="1:12">
       <c r="A12" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2531,26 +2607,26 @@
   <sheetData>
     <row r="1" ht="34" customHeight="true" spans="1:5">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2610,7 +2686,7 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2694,7 @@
   <sheetData>
     <row r="1" ht="16" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2635,43 +2711,43 @@
     </row>
     <row r="2" ht="16" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:13">
@@ -2692,40 +2768,40 @@
     <row r="4" ht="16" spans="1:13">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:13">
@@ -2745,7 +2821,7 @@
     </row>
     <row r="6" ht="16" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2762,16 +2838,16 @@
     </row>
     <row r="7" ht="16" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2800,7 +2876,7 @@
     </row>
     <row r="9" ht="16" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2817,16 +2893,16 @@
     </row>
     <row r="10" ht="16" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2855,7 +2931,7 @@
     </row>
     <row r="12" ht="16" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2872,16 +2948,16 @@
     </row>
     <row r="13" ht="16" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2910,19 +2986,19 @@
     </row>
     <row r="15" ht="16" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2985,52 +3061,52 @@
   <sheetData>
     <row r="1" ht="14.5" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:16">

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24165" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -484,13 +484,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湿球温度Ts,</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -498,13 +502,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>干球温度T,</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -517,11 +525,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="38">
@@ -626,6 +634,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -637,6 +674,68 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,23 +747,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,99 +772,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -802,13 +809,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,55 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,55 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,49 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,22 +1063,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,11 +1092,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,32 +1156,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1169,16 +1176,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,119 +1194,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,9 +1319,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,19 +1370,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
@@ -1730,496 +1734,496 @@
   </cols>
   <sheetData>
     <row r="1" ht="38.25" spans="1:10">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="27">
         <v>1</v>
       </c>
-      <c r="C1" s="28">
+      <c r="C1" s="27">
         <v>0.95</v>
       </c>
-      <c r="D1" s="28">
+      <c r="D1" s="27">
         <v>0.9</v>
       </c>
-      <c r="E1" s="28">
+      <c r="E1" s="27">
         <v>0.85</v>
       </c>
-      <c r="F1" s="28">
+      <c r="F1" s="27">
         <v>0.8</v>
       </c>
-      <c r="G1" s="28">
+      <c r="G1" s="27">
         <v>0.75</v>
       </c>
-      <c r="H1" s="28">
+      <c r="H1" s="27">
         <v>0.7</v>
       </c>
-      <c r="I1" s="28">
+      <c r="I1" s="27">
         <v>0.65</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="19.5" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28">
+        <v>3</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4</v>
+      </c>
+      <c r="F2" s="28">
+        <v>5</v>
+      </c>
+      <c r="G2" s="28">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28">
         <v>7</v>
       </c>
-      <c r="C2" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="I2" s="28">
         <v>8</v>
       </c>
-      <c r="E2" s="29">
-        <v>8.5</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="J2" s="28">
         <v>9</v>
       </c>
-      <c r="G2" s="29">
-        <v>9.5</v>
-      </c>
-      <c r="H2" s="29">
+    </row>
+    <row r="3" ht="15" spans="1:10">
+      <c r="A3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2814</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="30">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" ht="15" spans="1:10">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30">
+        <v>30</v>
+      </c>
+      <c r="C6" s="30">
+        <v>80</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" ht="15" spans="1:10">
+      <c r="A7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="30">
+        <v>21</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" ht="15" spans="1:10">
+      <c r="A8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="30">
+        <v>533</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" ht="15" spans="1:10">
+      <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29">
-        <v>10.5</v>
-      </c>
-      <c r="J2" s="29">
+      <c r="B10" s="30">
+        <v>41</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" ht="15" spans="1:10">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="30" t="s">
+      <c r="B11" s="30">
+        <v>90</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" ht="15" spans="1:10">
+      <c r="A12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="30">
         <v>3</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="31" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" ht="15" spans="1:10">
+      <c r="A13" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" ht="15" spans="1:10">
+      <c r="A14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="30">
+        <v>650</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" ht="15" spans="1:10">
+      <c r="A15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="30">
+        <v>23</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" ht="15" spans="1:10">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="30">
+        <v>55</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" ht="15" spans="1:10">
+      <c r="A17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="30">
+        <v>3</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" ht="15" spans="1:10">
+      <c r="A18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" ht="15" spans="1:10">
+      <c r="A19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="30">
+        <v>720</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" ht="15" spans="1:10">
+      <c r="A20" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="30">
+        <v>500000</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" ht="15" spans="1:10">
+      <c r="A21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="30">
+        <v>55</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" ht="15" spans="1:10">
+      <c r="A22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="30">
+        <v>3</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" ht="15" spans="1:10">
+      <c r="A23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" ht="19.5" spans="1:10">
+      <c r="A24" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="30">
         <v>4</v>
       </c>
-      <c r="B4" s="31">
-        <v>2814</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="31">
-        <v>3</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31">
-        <v>30</v>
-      </c>
-      <c r="C6" s="31">
-        <v>80</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="31">
-        <v>21</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="31">
-        <v>533</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="31" t="s">
+      <c r="C24" s="30">
         <v>10</v>
       </c>
-      <c r="B10" s="31">
-        <v>41</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" ht="19.5" spans="1:10">
+      <c r="A25" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="30">
+        <v>4</v>
+      </c>
+      <c r="C25" s="30">
+        <v>10</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" ht="19.5" spans="1:10">
+      <c r="A26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="30">
+        <v>422</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" ht="19.5" spans="1:10">
+      <c r="A27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="30">
         <v>90</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="31">
-        <v>3</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="31">
-        <v>650</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="31">
-        <v>23</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="31">
-        <v>55</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="31">
-        <v>3</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="31">
-        <v>720</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="31">
-        <v>500000</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="31">
-        <v>55</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="31">
-        <v>3</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" ht="19.5" spans="1:10">
-      <c r="A24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="31">
-        <v>4</v>
-      </c>
-      <c r="C24" s="31">
-        <v>10</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" ht="19.5" spans="1:10">
-      <c r="A25" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="31">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31">
-        <v>10</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-    </row>
-    <row r="26" ht="19.5" spans="1:10">
-      <c r="A26" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="31">
-        <v>422</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" ht="19.5" spans="1:10">
-      <c r="A27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="31">
-        <v>90</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" ht="19.5" spans="1:10">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>0.6</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" ht="19.5" spans="1:10">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>0.65</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2239,104 +2243,104 @@
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="34.5" spans="1:8">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>100</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>2813</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>541</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>6</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>10</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>34</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>38</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>5.198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>90</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>2532</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>483.4</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>6</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>9.6</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>34</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>37.59</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>5.238</v>
       </c>
     </row>
@@ -2364,316 +2368,316 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:12">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" ht="14.25" spans="1:12">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:12">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>533</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>78</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>498</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>56.8</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>442</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>39.9</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>387</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>26.8</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>331</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <v>16.8</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" ht="14.25" spans="1:12">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="14.25" spans="1:12">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="18.75" spans="1:12">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" ht="14.25" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:12">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:12">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>632</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>50</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>380</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>30.2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>338</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>21.3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>297</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>14.2</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>254</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>9.1</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2703,20 +2707,20 @@
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
@@ -2727,10 +2731,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>13.7</v>
       </c>
       <c r="D3">
@@ -2741,10 +2745,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>13.3</v>
       </c>
       <c r="D4">
@@ -2755,10 +2759,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>12.9</v>
       </c>
       <c r="D5">
@@ -2790,336 +2794,336 @@
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" ht="14.25" spans="1:13">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" ht="14.25" spans="1:13">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" ht="14.25" spans="1:13">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" ht="14.25" spans="1:13">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" ht="14.25" spans="1:13">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" ht="14.25" spans="1:13">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3157,274 +3161,274 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:16">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>2814</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>28</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2532.6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2251.2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>26</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1969.8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>25</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1688.4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>24</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1407</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1125.6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>22</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>844.2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>20</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>562.8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>281.4</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3437,7 +3441,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3462,10 +3466,10 @@
       <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3473,13 +3477,13 @@
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="3">
@@ -3494,13 +3498,13 @@
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="3">
@@ -3515,13 +3519,13 @@
       <c r="A4" s="1">
         <v>2021</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
       <c r="E4" s="3">
@@ -3536,13 +3540,13 @@
       <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="3">
@@ -3557,13 +3561,13 @@
       <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -3578,13 +3582,13 @@
       <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="3">
@@ -3599,13 +3603,13 @@
       <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>6</v>
       </c>
       <c r="E8" s="3">
@@ -3620,13 +3624,13 @@
       <c r="A9" s="1">
         <v>2021</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
       <c r="E9" s="3">
@@ -3641,13 +3645,13 @@
       <c r="A10" s="1">
         <v>2021</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
       <c r="E10" s="3">

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="10380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -390,21 +390,29 @@
     <t>E3</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
     <t>负荷Q/Kw</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>湿球温度Ts/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -412,17 +420,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>干球温度T/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -466,18 +470,6 @@
   </si>
   <si>
     <t>设备开启台数/台</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>时</t>
   </si>
   <si>
     <t>负荷Q，Kw</t>
@@ -524,19 +516,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,7 +565,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,14 +573,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -634,52 +626,63 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -687,77 +690,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -765,16 +698,75 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,6 +777,7 @@
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -809,7 +802,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +916,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,73 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,49 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,19 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,56 +998,136 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,384 +1149,316 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1582,7 +1587,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1606,9 +1611,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1632,7 +1637,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1685,7 +1690,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1710,7 +1715,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1724,506 +1729,506 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.6416666666667" customWidth="1"/>
+    <col min="1" max="1" width="31.6428571428571" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:10">
-      <c r="A1" s="26" t="s">
+    <row r="1" ht="37.75" spans="1:10">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27">
+      <c r="B1" s="31">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31">
         <v>0.95</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="31">
         <v>0.9</v>
       </c>
-      <c r="E1" s="27">
+      <c r="E1" s="31">
         <v>0.85</v>
       </c>
-      <c r="F1" s="27">
+      <c r="F1" s="31">
         <v>0.8</v>
       </c>
-      <c r="G1" s="27">
+      <c r="G1" s="31">
         <v>0.75</v>
       </c>
-      <c r="H1" s="27">
+      <c r="H1" s="31">
         <v>0.7</v>
       </c>
-      <c r="I1" s="27">
+      <c r="I1" s="31">
         <v>0.65</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" spans="1:10">
-      <c r="A2" s="26" t="s">
+      <c r="J1" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="19.25" spans="1:10">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
         <v>2</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="32">
         <v>3</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="32">
         <v>4</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="32">
         <v>5</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="32">
         <v>6</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="32">
         <v>7</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="32">
         <v>8</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="32">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="29" t="s">
+    <row r="3" ht="16.75" spans="1:10">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" ht="15" spans="1:10">
-      <c r="A4" s="30" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" ht="16.75" spans="1:10">
+      <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="34">
         <v>2814</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="30" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" ht="16.75" spans="1:10">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="34">
         <v>3</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" ht="15" spans="1:10">
-      <c r="A6" s="30" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" ht="16.75" spans="1:10">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="34">
         <v>30</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="34">
         <v>80</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="30" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" ht="16.75" spans="1:10">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="34">
         <v>21</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" ht="15" spans="1:10">
-      <c r="A8" s="29" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" ht="16.75" spans="1:10">
+      <c r="A8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="30" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" ht="16.75" spans="1:10">
+      <c r="A9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="34">
         <v>533</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" ht="15" spans="1:10">
-      <c r="A10" s="30" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" ht="16.75" spans="1:10">
+      <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="34">
         <v>41</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="30" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" ht="16.75" spans="1:10">
+      <c r="A11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="34">
         <v>90</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" ht="15" spans="1:10">
-      <c r="A12" s="30" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" ht="16.75" spans="1:10">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="34">
         <v>3</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" ht="15" spans="1:10">
-      <c r="A13" s="29" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" ht="16.75" spans="1:10">
+      <c r="A13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" ht="15" spans="1:10">
-      <c r="A14" s="30" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" ht="16.75" spans="1:10">
+      <c r="A14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="34">
         <v>650</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" ht="15" spans="1:10">
-      <c r="A15" s="30" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" ht="16.75" spans="1:10">
+      <c r="A15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="34">
         <v>23</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" ht="15" spans="1:10">
-      <c r="A16" s="30" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" ht="16.75" spans="1:10">
+      <c r="A16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="34">
         <v>55</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" ht="15" spans="1:10">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" ht="16.75" spans="1:10">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="34">
         <v>3</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" ht="15" spans="1:10">
-      <c r="A18" s="29" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" ht="16.75" spans="1:10">
+      <c r="A18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" ht="15" spans="1:10">
-      <c r="A19" s="30" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" ht="16.75" spans="1:10">
+      <c r="A19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="34">
         <v>720</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" ht="15" spans="1:10">
-      <c r="A20" s="30" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" ht="16.75" spans="1:10">
+      <c r="A20" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="34">
         <v>500000</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" ht="15" spans="1:10">
-      <c r="A21" s="30" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" ht="16.75" spans="1:10">
+      <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="34">
         <v>55</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" ht="15" spans="1:10">
-      <c r="A22" s="30" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" ht="16.75" spans="1:10">
+      <c r="A22" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="34">
         <v>3</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" ht="15" spans="1:10">
-      <c r="A23" s="29" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" ht="16.75" spans="1:10">
+      <c r="A23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" ht="19.5" spans="1:10">
-      <c r="A24" s="31" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" ht="19.25" spans="1:10">
+      <c r="A24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="34">
         <v>4</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="34">
         <v>10</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" ht="19.5" spans="1:10">
-      <c r="A25" s="31" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" ht="19.25" spans="1:10">
+      <c r="A25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="34">
         <v>4</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="34">
         <v>10</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" ht="19.5" spans="1:10">
-      <c r="A26" s="31" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" ht="19.25" spans="1:10">
+      <c r="A26" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="34">
         <v>422</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" ht="19.5" spans="1:10">
-      <c r="A27" s="31" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" ht="19.25" spans="1:10">
+      <c r="A27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="34">
         <v>90</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" ht="19.5" spans="1:10">
-      <c r="A28" s="31" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" ht="19.25" spans="1:10">
+      <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="34">
         <v>0.6</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-    </row>
-    <row r="29" ht="19.5" spans="1:10">
-      <c r="A29" s="31" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" ht="19.25" spans="1:10">
+      <c r="A29" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="34">
         <v>0.65</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2240,107 +2245,107 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="34.5" spans="1:8">
-      <c r="A1" s="19" t="s">
+    <row r="1" ht="32" spans="1:8">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="19" t="s">
+    <row r="2" ht="16" spans="1:8">
+      <c r="A2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24">
+      <c r="A3" s="27">
         <v>100</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="27">
         <v>2813</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <v>541</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="27">
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="27">
         <v>10</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="27">
         <v>34</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="27">
         <v>38</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="29">
         <v>5.198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24">
+      <c r="A4" s="27">
         <v>90</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="27">
         <v>2532</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>483.4</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="27">
         <v>6</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="27">
         <v>9.6</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="27">
         <v>34</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="27">
         <v>37.59</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="29">
         <v>5.238</v>
       </c>
     </row>
@@ -2362,322 +2367,322 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="31.425" customWidth="1"/>
+    <col min="2" max="2" width="31.4214285714286" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:12">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="18.5" spans="1:12">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:12">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" ht="16" spans="1:12">
+      <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:12">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" ht="34" spans="1:12">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="13">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" ht="16" spans="1:12">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>533</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="17">
         <v>78</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="17">
         <v>498</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="17">
         <v>56.8</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="17">
         <v>442</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>39.9</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>387</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="17">
         <v>26.8</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="17">
         <v>331</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="17">
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="16" t="s">
+    <row r="5" ht="16" spans="1:12">
+      <c r="A5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" ht="18.75" spans="1:12">
-      <c r="A8" s="12" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" ht="16" spans="1:12">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" ht="16" spans="1:12">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" ht="18.5" spans="1:12">
+      <c r="A8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:12">
-      <c r="A9" s="13" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" ht="16" spans="1:12">
+      <c r="A9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
+    <row r="10" ht="34" spans="1:12">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:12">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
+    <row r="11" ht="16" spans="1:12">
+      <c r="A11" s="17">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="17">
         <v>632</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <v>50</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="17">
         <v>380</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="17">
         <v>30.2</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="17">
         <v>338</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="17">
         <v>21.3</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="17">
         <v>297</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="17">
         <v>14.2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="17">
         <v>254</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="17">
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:12">
-      <c r="A12" s="16" t="s">
+    <row r="12" ht="16" spans="1:12">
+      <c r="A12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2704,23 +2709,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="34" customHeight="true" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
@@ -2731,10 +2736,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>0</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="15">
         <v>13.7</v>
       </c>
       <c r="D3">
@@ -2745,10 +2750,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
         <v>13.3</v>
       </c>
       <c r="D4">
@@ -2759,10 +2764,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <v>12.9</v>
       </c>
       <c r="D5">
@@ -2791,339 +2796,339 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:13">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="16" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" ht="16" spans="1:13">
+      <c r="A2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:13">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+    <row r="3" ht="16" spans="1:13">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" ht="16" spans="1:13">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:13">
-      <c r="A6" s="7" t="s">
+    <row r="5" ht="16" spans="1:13">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" ht="16" spans="1:13">
+      <c r="A6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" ht="16" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:13">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:13">
-      <c r="A9" s="7" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" ht="16" spans="1:13">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" ht="16" spans="1:13">
+      <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="16" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:13">
-      <c r="A12" s="7" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" ht="16" spans="1:13">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" ht="16" spans="1:13">
+      <c r="A12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" ht="16" spans="1:13">
+      <c r="A13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:13">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:13">
-      <c r="A15" s="8" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" ht="16" spans="1:13">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" ht="16" spans="1:13">
+      <c r="A15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:13">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" ht="16" spans="1:13">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3140,295 +3145,428 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="10.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.575" customWidth="1"/>
-    <col min="7" max="8" width="13.6416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.1416666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6416666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.2833333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.575" customWidth="1"/>
-    <col min="16" max="16" width="12.3583333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" customWidth="true"/>
+    <col min="5" max="5" width="13" customWidth="true"/>
+    <col min="6" max="6" width="12.5714285714286" customWidth="true"/>
+    <col min="7" max="7" width="8.85714285714286" customWidth="true"/>
+    <col min="8" max="8" width="10.3571428571429" customWidth="true"/>
+    <col min="9" max="9" width="10.1428571428571" customWidth="true"/>
+    <col min="10" max="10" width="11.3571428571429" customWidth="true"/>
+    <col min="11" max="11" width="13.6428571428571" customWidth="true"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="true"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="true"/>
+    <col min="16" max="16" width="12.3571428571429" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:16">
+    <row r="1" ht="14.5" spans="1:20">
       <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:20">
       <c r="A2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
         <v>2814</v>
       </c>
-      <c r="B2" s="5">
+      <c r="F2" s="8">
         <v>28</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" ht="14.5" spans="1:20">
       <c r="A3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>2532.6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="F3" s="8">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" ht="14.5" spans="1:20">
       <c r="A4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>2251.2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="F4" s="8">
         <v>26</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" ht="14.5" spans="1:20">
       <c r="A5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
         <v>1969.8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="F5" s="8">
         <v>25</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" ht="14.5" spans="1:20">
       <c r="A6" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
         <v>1688.4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="F6" s="8">
         <v>24</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" ht="14.5" spans="1:20">
       <c r="A7" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="8">
         <v>1407</v>
       </c>
-      <c r="B7" s="5">
+      <c r="F7" s="8">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" ht="14.5" spans="1:20">
       <c r="A8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8">
         <v>1125.6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="F8" s="8">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" ht="14.5" spans="1:20">
       <c r="A9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8">
         <v>844.2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="F9" s="8">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" ht="14.5" spans="1:20">
       <c r="A10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
         <v>562.8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="F10" s="8">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" ht="14.5" spans="1:20">
+      <c r="A11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
         <v>281.4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="F11" s="9">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3445,219 +3583,219 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:7">
+    <row r="1" ht="16" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="16" spans="1:7">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2814</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>28</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="16" spans="1:7">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>2532.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>27</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="16" spans="1:7">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>2251.2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" ht="16" spans="1:7">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>1969.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>25</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="16" spans="1:7">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1688.4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>24</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="16" spans="1:7">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>1407</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>23</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="16" spans="1:7">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1125.6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>22</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="16" spans="1:7">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>844.2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="16" spans="1:7">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>562.8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>18</v>
       </c>
       <c r="G10" s="1"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -406,13 +406,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>湿球温度Ts/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -420,13 +424,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>干球温度T/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -516,13 +524,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -634,14 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -658,7 +658,47 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -672,21 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -695,9 +720,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,6 +744,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -732,44 +778,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -777,7 +785,6 @@
     <font>
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -808,7 +815,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,13 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,31 +941,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,67 +977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,43 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,6 +1084,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1106,21 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1135,8 +1142,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,8 +1151,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,142 +1161,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1299,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,24 +1322,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1375,19 +1370,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1739,496 +1734,496 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.75" spans="1:10">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31">
+      <c r="B1" s="27">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27">
         <v>0.95</v>
       </c>
-      <c r="D1" s="31">
+      <c r="D1" s="27">
         <v>0.9</v>
       </c>
-      <c r="E1" s="31">
+      <c r="E1" s="27">
         <v>0.85</v>
       </c>
-      <c r="F1" s="31">
+      <c r="F1" s="27">
         <v>0.8</v>
       </c>
-      <c r="G1" s="31">
+      <c r="G1" s="27">
         <v>0.75</v>
       </c>
-      <c r="H1" s="31">
+      <c r="H1" s="27">
         <v>0.7</v>
       </c>
-      <c r="I1" s="31">
+      <c r="I1" s="27">
         <v>0.65</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="19.25" spans="1:10">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28">
         <v>2</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="28">
         <v>3</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>4</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="28">
         <v>5</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="28">
         <v>6</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="28">
         <v>7</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="28">
         <v>8</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="28">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="16.75" spans="1:10">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" ht="16.75" spans="1:10">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="30">
         <v>2814</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" ht="16.75" spans="1:10">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="30">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" ht="16.75" spans="1:10">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="30">
         <v>30</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="30">
         <v>80</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" ht="16.75" spans="1:10">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="30">
         <v>21</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" ht="16.75" spans="1:10">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" ht="16.75" spans="1:10">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="30">
         <v>533</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" ht="16.75" spans="1:10">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="30">
         <v>41</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" ht="16.75" spans="1:10">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="30">
         <v>90</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" ht="16.75" spans="1:10">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="30">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" ht="16.75" spans="1:10">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" ht="16.75" spans="1:10">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="30">
         <v>650</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" ht="16.75" spans="1:10">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="30">
         <v>23</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" ht="16.75" spans="1:10">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="30">
         <v>55</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" ht="16.75" spans="1:10">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="30">
         <v>3</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" ht="16.75" spans="1:10">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" ht="16.75" spans="1:10">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="30">
         <v>720</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" ht="16.75" spans="1:10">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="30">
         <v>500000</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" ht="16.75" spans="1:10">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="30">
         <v>55</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" ht="16.75" spans="1:10">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="30">
         <v>3</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" ht="16.75" spans="1:10">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" ht="19.25" spans="1:10">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="30">
         <v>4</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="30">
         <v>10</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" ht="19.25" spans="1:10">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="30">
         <v>4</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="30">
         <v>10</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" ht="19.25" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="30">
         <v>422</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" ht="19.25" spans="1:10">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="30">
         <v>90</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
     </row>
     <row r="28" ht="19.25" spans="1:10">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="30">
         <v>0.6</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="29" ht="19.25" spans="1:10">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="30">
         <v>0.65</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2248,104 +2243,104 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="32" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="28"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27">
+      <c r="A3" s="23">
         <v>100</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>2813</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="23">
         <v>541</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="23">
         <v>6</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="23">
         <v>10</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="23">
         <v>34</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="23">
         <v>38</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="25">
         <v>5.198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27">
+      <c r="A4" s="23">
         <v>90</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="23">
         <v>2532</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="23">
         <v>483.4</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="23">
         <v>6</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="23">
         <v>9.6</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="23">
         <v>34</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>37.59</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="25">
         <v>5.238</v>
       </c>
     </row>
@@ -2373,316 +2368,316 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:12">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" ht="16" spans="1:12">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="34" spans="1:12">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:12">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="13">
         <v>533</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="13">
         <v>78</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>498</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>56.8</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>442</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="13">
         <v>39.9</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>387</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>26.8</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="13">
         <v>331</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="13">
         <v>16.8</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:12">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" ht="16" spans="1:12">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" ht="16" spans="1:12">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" ht="18.5" spans="1:12">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" ht="16" spans="1:12">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="34" spans="1:12">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" ht="16" spans="1:12">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="13">
         <v>632</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>50</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>380</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="13">
         <v>30.2</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="13">
         <v>338</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="13">
         <v>21.3</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>297</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>14.2</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="13">
         <v>254</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="13">
         <v>9.1</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2712,20 +2707,20 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="34" customHeight="true" spans="1:5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
@@ -2736,10 +2731,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>13.7</v>
       </c>
       <c r="D3">
@@ -2750,10 +2745,10 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
         <v>13.3</v>
       </c>
       <c r="D4">
@@ -2764,10 +2759,10 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>12.9</v>
       </c>
       <c r="D5">
@@ -2799,336 +2794,336 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" ht="16" spans="1:13">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" ht="16" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" ht="16" spans="1:13">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:13">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" ht="16" spans="1:13">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" ht="16" spans="1:13">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" ht="16" spans="1:13">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
     <row r="9" ht="16" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" ht="16" spans="1:13">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" ht="16" spans="1:13">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" ht="16" spans="1:13">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" ht="16" spans="1:13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" ht="16" spans="1:13">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" ht="16" spans="1:13">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" ht="16" spans="1:13">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3148,7 +3143,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
@@ -3156,7 +3151,7 @@
     <col min="4" max="4" width="10.8571428571429" customWidth="true"/>
     <col min="5" max="5" width="13" customWidth="true"/>
     <col min="6" max="6" width="12.5714285714286" customWidth="true"/>
-    <col min="7" max="7" width="8.85714285714286" customWidth="true"/>
+    <col min="7" max="7" width="9" customWidth="true"/>
     <col min="8" max="8" width="10.3571428571429" customWidth="true"/>
     <col min="9" max="9" width="10.1428571428571" customWidth="true"/>
     <col min="10" max="10" width="11.3571428571429" customWidth="true"/>
@@ -3167,406 +3162,406 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.5" spans="1:20">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" ht="14.5" spans="1:20">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>2021</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>2814</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>28</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" ht="14.5" spans="1:20">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2021</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>2532.6</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>27</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" ht="14.5" spans="1:20">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2021</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>2251.2</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>26</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" ht="14.5" spans="1:20">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2021</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>1969.8</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>25</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" ht="14.5" spans="1:20">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2021</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>1688.4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>24</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
     </row>
     <row r="7" ht="14.5" spans="1:20">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2021</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>1407</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>23</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" ht="14.5" spans="1:20">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>1125.6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>22</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
     </row>
     <row r="9" ht="14.5" spans="1:20">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2021</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>844.2</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>20</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" ht="14.5" spans="1:20">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>2021</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>562.8</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
     </row>
     <row r="11" ht="14.5" spans="1:20">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>2021</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>281.4</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>16</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -524,10 +524,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -634,6 +634,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -642,17 +678,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,21 +694,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,76 +763,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -770,9 +771,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,43 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +833,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,25 +947,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,91 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,9 +1061,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,6 +1075,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,17 +1103,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1122,26 +1127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1156,6 +1141,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1164,145 +1164,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
@@ -1770,31 +1770,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="28">
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="D2" s="28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="28">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="F2" s="28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" s="28">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="H2" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" s="28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:10">
@@ -1848,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="30">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C6" s="30">
         <v>80</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10380" activeTab="5"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -390,18 +390,6 @@
     <t>E3</t>
   </si>
   <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>时</t>
-  </si>
-  <si>
     <t>负荷Q/Kw</t>
   </si>
   <si>
@@ -480,6 +468,18 @@
     <t>设备开启台数/台</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
     <t>负荷Q，Kw</t>
   </si>
   <si>
@@ -524,19 +524,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,7 +573,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,14 +581,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -634,10 +634,138 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -645,135 +773,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -809,7 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,13 +833,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,37 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,31 +947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,71 +1005,56 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,7 +1063,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,6 +1093,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1113,17 +1122,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,20 +1142,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,148 +1161,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,150 +1310,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1582,7 +1582,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1606,9 +1606,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1632,7 +1632,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1685,7 +1685,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1710,7 +1710,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1724,16 +1724,16 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.6428571428571" customWidth="true"/>
+    <col min="1" max="1" width="31.6416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.75" spans="1:10">
+    <row r="1" ht="38.25" spans="1:10">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="19.25" spans="1:10">
+    <row r="2" ht="19.5" spans="1:10">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="16.75" spans="1:10">
+    <row r="3" ht="15" spans="1:10">
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" ht="16.75" spans="1:10">
+    <row r="4" ht="15" spans="1:10">
       <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" ht="16.75" spans="1:10">
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" ht="16.75" spans="1:10">
+    <row r="6" ht="15" spans="1:10">
       <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" ht="16.75" spans="1:10">
+    <row r="7" ht="15" spans="1:10">
       <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" ht="16.75" spans="1:10">
+    <row r="8" ht="15" spans="1:10">
       <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" ht="16.75" spans="1:10">
+    <row r="9" ht="15" spans="1:10">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" ht="16.75" spans="1:10">
+    <row r="10" ht="15" spans="1:10">
       <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" ht="16.75" spans="1:10">
+    <row r="11" ht="15" spans="1:10">
       <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" ht="16.75" spans="1:10">
+    <row r="12" ht="15" spans="1:10">
       <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" ht="16.75" spans="1:10">
+    <row r="13" ht="15" spans="1:10">
       <c r="A13" s="29" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" ht="16.75" spans="1:10">
+    <row r="14" ht="15" spans="1:10">
       <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" ht="16.75" spans="1:10">
+    <row r="15" ht="15" spans="1:10">
       <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" ht="16.75" spans="1:10">
+    <row r="16" ht="15" spans="1:10">
       <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" ht="16.75" spans="1:10">
+    <row r="17" ht="15" spans="1:10">
       <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" ht="16.75" spans="1:10">
+    <row r="18" ht="15" spans="1:10">
       <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" ht="16.75" spans="1:10">
+    <row r="19" ht="15" spans="1:10">
       <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" ht="16.75" spans="1:10">
+    <row r="20" ht="15" spans="1:10">
       <c r="A20" s="30" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" ht="16.75" spans="1:10">
+    <row r="21" ht="15" spans="1:10">
       <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" ht="16.75" spans="1:10">
+    <row r="22" ht="15" spans="1:10">
       <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" ht="16.75" spans="1:10">
+    <row r="23" ht="15" spans="1:10">
       <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" ht="19.25" spans="1:10">
+    <row r="24" ht="19.5" spans="1:10">
       <c r="A24" s="31" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" ht="19.25" spans="1:10">
+    <row r="25" ht="19.5" spans="1:10">
       <c r="A25" s="31" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" ht="19.25" spans="1:10">
+    <row r="26" ht="19.5" spans="1:10">
       <c r="A26" s="31" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" ht="19.25" spans="1:10">
+    <row r="27" ht="19.5" spans="1:10">
       <c r="A27" s="31" t="s">
         <v>27</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" ht="19.25" spans="1:10">
+    <row r="28" ht="19.5" spans="1:10">
       <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
     </row>
-    <row r="29" ht="19.25" spans="1:10">
+    <row r="29" ht="19.5" spans="1:10">
       <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
@@ -2240,9 +2240,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="32" spans="1:8">
+    <row r="1" ht="34.5" spans="1:8">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -2264,11 +2264,11 @@
       <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:8">
+    <row r="2" ht="17.25" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -2290,28 +2290,28 @@
       <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="23">
+      <c r="A3" s="24">
         <v>100</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="24">
         <v>2813</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="24">
         <v>541</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="24">
         <v>6</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="24">
         <v>10</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="24">
         <v>34</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="24">
         <v>38</v>
       </c>
       <c r="H3" s="25">
@@ -2319,25 +2319,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="23">
+      <c r="A4" s="24">
         <v>90</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="24">
         <v>2532</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="24">
         <v>483.4</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="24">
         <v>6</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="24">
         <v>9.6</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="24">
         <v>34</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>37.59</v>
       </c>
       <c r="H4" s="25">
@@ -2362,12 +2362,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="31.4214285714286" customWidth="true"/>
+    <col min="2" max="2" width="31.425" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.5" spans="1:12">
+    <row r="1" ht="18.75" spans="1:12">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" ht="16" spans="1:12">
+    <row r="2" ht="14.25" spans="1:12">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:12">
+    <row r="3" ht="28.5" spans="1:12">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="15" t="s">
@@ -2455,7 +2455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="16" spans="1:12">
+    <row r="4" ht="14.25" spans="1:12">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:12">
+    <row r="5" ht="14.25" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" ht="16" spans="1:12">
+    <row r="6" ht="14.25" spans="1:12">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2523,7 +2523,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" ht="16" spans="1:12">
+    <row r="7" ht="14.25" spans="1:12">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2537,7 +2537,7 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" ht="18.5" spans="1:12">
+    <row r="8" ht="18.75" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" ht="16" spans="1:12">
+    <row r="9" ht="14.25" spans="1:12">
       <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="34" spans="1:12">
+    <row r="10" ht="28.5" spans="1:12">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15" t="s">
@@ -2625,7 +2625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="16" spans="1:12">
+    <row r="11" ht="14.25" spans="1:12">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="1:12">
+    <row r="12" ht="14.25" spans="1:12">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -2704,9 +2704,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="34" customHeight="true" spans="1:5">
+    <row r="1" ht="34" customHeight="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
@@ -2791,9 +2791,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="16" spans="1:13">
+    <row r="1" ht="14.25" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" ht="16" spans="1:13">
+    <row r="2" ht="14.25" spans="1:13">
       <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:13">
+    <row r="3" ht="14.25" spans="1:13">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2866,7 +2866,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" ht="16" spans="1:13">
+    <row r="4" ht="14.25" spans="1:13">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>75</v>
@@ -2905,7 +2905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:13">
+    <row r="5" ht="14.25" spans="1:13">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2920,7 +2920,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" ht="16" spans="1:13">
+    <row r="6" ht="14.25" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" ht="16" spans="1:13">
+    <row r="7" ht="14.25" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" ht="16" spans="1:13">
+    <row r="8" ht="14.25" spans="1:13">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2975,7 +2975,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" ht="16" spans="1:13">
+    <row r="9" ht="14.25" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" ht="16" spans="1:13">
+    <row r="10" ht="14.25" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" ht="16" spans="1:13">
+    <row r="11" ht="14.25" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3030,7 +3030,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" ht="16" spans="1:13">
+    <row r="12" ht="14.25" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>95</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" ht="16" spans="1:13">
+    <row r="13" ht="14.25" spans="1:13">
       <c r="A13" s="8" t="s">
         <v>96</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" ht="16" spans="1:13">
+    <row r="14" ht="14.25" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3085,7 +3085,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" ht="16" spans="1:13">
+    <row r="15" ht="14.25" spans="1:13">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" ht="16" spans="1:13">
+    <row r="16" ht="14.25" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3140,38 +3140,37 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="10.8571428571429" customWidth="true"/>
-    <col min="5" max="5" width="13" customWidth="true"/>
-    <col min="6" max="6" width="12.5714285714286" customWidth="true"/>
-    <col min="7" max="7" width="9" customWidth="true"/>
-    <col min="8" max="8" width="10.3571428571429" customWidth="true"/>
-    <col min="9" max="9" width="10.1428571428571" customWidth="true"/>
-    <col min="10" max="10" width="11.3571428571429" customWidth="true"/>
-    <col min="11" max="11" width="13.6428571428571" customWidth="true"/>
-    <col min="12" max="12" width="14.2857142857143" customWidth="true"/>
-    <col min="13" max="13" width="11.5714285714286" customWidth="true"/>
-    <col min="16" max="16" width="12.3571428571429" customWidth="true"/>
+    <col min="4" max="4" width="10.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12.575" customWidth="1"/>
+    <col min="7" max="8" width="13.6416666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.3583333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.6416666666667" customWidth="1"/>
+    <col min="12" max="12" width="14.2833333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.575" customWidth="1"/>
+    <col min="16" max="16" width="12.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.5" spans="1:20">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="16.5" spans="1:16">
+      <c r="A1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>108</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3210,38 +3209,18 @@
       <c r="P1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" ht="14.5" spans="1:20">
-      <c r="A2" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="5">
         <v>2814</v>
       </c>
-      <c r="F2" s="5">
+      <c r="B2" s="5">
         <v>28</v>
       </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3252,30 +3231,18 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-    </row>
-    <row r="3" ht="14.5" spans="1:20">
-      <c r="A3" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="5">
         <v>2532.6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="B3" s="5">
         <v>27</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -3286,30 +3253,18 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-    </row>
-    <row r="4" ht="14.5" spans="1:20">
-      <c r="A4" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="5">
         <v>2251.2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="B4" s="5">
         <v>26</v>
       </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3320,30 +3275,18 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" ht="14.5" spans="1:20">
-      <c r="A5" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="5">
         <v>1969.8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="B5" s="5">
         <v>25</v>
       </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3354,30 +3297,18 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" ht="14.5" spans="1:20">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="5">
         <v>1688.4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="B6" s="5">
         <v>24</v>
       </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -3388,30 +3319,18 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" ht="14.5" spans="1:20">
-      <c r="A7" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="5">
         <v>1407</v>
       </c>
-      <c r="F7" s="5">
+      <c r="B7" s="5">
         <v>23</v>
       </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -3422,30 +3341,18 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" ht="14.5" spans="1:20">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5">
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5">
         <v>1125.6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="B8" s="5">
         <v>22</v>
       </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -3456,30 +3363,18 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" ht="14.5" spans="1:20">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="5">
         <v>844.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="B9" s="5">
         <v>20</v>
       </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -3490,30 +3385,18 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" ht="14.5" spans="1:20">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="5">
         <v>562.8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="B10" s="5">
         <v>18</v>
       </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3524,30 +3407,18 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" ht="14.5" spans="1:20">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-      <c r="E11" s="6">
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="6">
         <v>281.4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="B11" s="6">
         <v>16</v>
       </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3558,10 +3429,6 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3578,219 +3445,219 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="16.25" customWidth="true"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:7">
+    <row r="1" ht="17.25" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>2814</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>28</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="16" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2532.6</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>27</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="16" spans="1:7">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>2251.2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="16" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1969.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>25</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" ht="16" spans="1:7">
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1688.4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>24</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="16" spans="1:7">
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1407</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>23</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="16" spans="1:7">
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1125.6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>22</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" ht="16" spans="1:7">
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>844.2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>20</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="16" spans="1:7">
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>562.8</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>18</v>
       </c>
       <c r="G10" s="1"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="25600" windowHeight="10380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="参数初始值设定" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,18 @@
     <t>E3</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
     <t>负荷Q/Kw</t>
   </si>
   <si>
@@ -468,18 +480,6 @@
     <t>设备开启台数/台</t>
   </si>
   <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>时</t>
-  </si>
-  <si>
     <t>负荷Q，Kw</t>
   </si>
   <si>
@@ -524,19 +524,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -573,7 +573,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -581,14 +581,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -634,52 +634,80 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -687,93 +715,65 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -809,19 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,7 +821,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,13 +893,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,91 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,19 +947,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +983,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,56 +1005,71 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,16 +1078,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,21 +1099,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1122,11 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,17 +1139,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,148 +1161,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,150 +1310,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1582,7 +1582,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1606,9 +1606,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1632,7 +1632,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1685,7 +1685,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1710,7 +1710,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1724,16 +1724,16 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.6416666666667" customWidth="1"/>
+    <col min="1" max="1" width="31.6428571428571" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38.25" spans="1:10">
+    <row r="1" ht="37.75" spans="1:10">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="19.5" spans="1:10">
+    <row r="2" ht="19.25" spans="1:10">
       <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" ht="16.75" spans="1:10">
       <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" ht="15" spans="1:10">
+    <row r="4" ht="16.75" spans="1:10">
       <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" ht="15" spans="1:10">
+    <row r="5" ht="16.75" spans="1:10">
       <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" ht="15" spans="1:10">
+    <row r="6" ht="16.75" spans="1:10">
       <c r="A6" s="30" t="s">
         <v>6</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" ht="15" spans="1:10">
+    <row r="7" ht="16.75" spans="1:10">
       <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" ht="15" spans="1:10">
+    <row r="8" ht="16.75" spans="1:10">
       <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" ht="15" spans="1:10">
+    <row r="9" ht="16.75" spans="1:10">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" ht="15" spans="1:10">
+    <row r="10" ht="16.75" spans="1:10">
       <c r="A10" s="30" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" ht="15" spans="1:10">
+    <row r="11" ht="16.75" spans="1:10">
       <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" ht="15" spans="1:10">
+    <row r="12" ht="16.75" spans="1:10">
       <c r="A12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" ht="15" spans="1:10">
+    <row r="13" ht="16.75" spans="1:10">
       <c r="A13" s="29" t="s">
         <v>13</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" ht="15" spans="1:10">
+    <row r="14" ht="16.75" spans="1:10">
       <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1985,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" ht="15" spans="1:10">
+    <row r="15" ht="16.75" spans="1:10">
       <c r="A15" s="30" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" ht="15" spans="1:10">
+    <row r="16" ht="16.75" spans="1:10">
       <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" ht="15" spans="1:10">
+    <row r="17" ht="16.75" spans="1:10">
       <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +2033,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" ht="15" spans="1:10">
+    <row r="18" ht="16.75" spans="1:10">
       <c r="A18" s="29" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" ht="15" spans="1:10">
+    <row r="19" ht="16.75" spans="1:10">
       <c r="A19" s="30" t="s">
         <v>19</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" ht="15" spans="1:10">
+    <row r="20" ht="16.75" spans="1:10">
       <c r="A20" s="30" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" ht="15" spans="1:10">
+    <row r="21" ht="16.75" spans="1:10">
       <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" ht="15" spans="1:10">
+    <row r="22" ht="16.75" spans="1:10">
       <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" ht="15" spans="1:10">
+    <row r="23" ht="16.75" spans="1:10">
       <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
     </row>
-    <row r="24" ht="19.5" spans="1:10">
+    <row r="24" ht="19.25" spans="1:10">
       <c r="A24" s="31" t="s">
         <v>24</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" ht="19.5" spans="1:10">
+    <row r="25" ht="19.25" spans="1:10">
       <c r="A25" s="31" t="s">
         <v>25</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" ht="19.5" spans="1:10">
+    <row r="26" ht="19.25" spans="1:10">
       <c r="A26" s="31" t="s">
         <v>26</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
     </row>
-    <row r="27" ht="19.5" spans="1:10">
+    <row r="27" ht="19.25" spans="1:10">
       <c r="A27" s="31" t="s">
         <v>27</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
     </row>
-    <row r="28" ht="19.5" spans="1:10">
+    <row r="28" ht="19.25" spans="1:10">
       <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
     </row>
-    <row r="29" ht="19.5" spans="1:10">
+    <row r="29" ht="19.25" spans="1:10">
       <c r="A29" s="31" t="s">
         <v>29</v>
       </c>
@@ -2240,9 +2240,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" ht="34.5" spans="1:8">
+    <row r="1" ht="32" spans="1:8">
       <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
@@ -2264,11 +2264,11 @@
       <c r="G1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:8">
+    <row r="2" ht="16" spans="1:8">
       <c r="A2" s="19" t="s">
         <v>38</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="C2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -2290,28 +2290,28 @@
       <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="22"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>100</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>2813</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>541</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>6</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>10</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>34</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>38</v>
       </c>
       <c r="H3" s="25">
@@ -2319,25 +2319,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>90</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2532</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>483.4</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>6</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>9.6</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>34</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>37.59</v>
       </c>
       <c r="H4" s="25">
@@ -2362,12 +2362,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="31.425" customWidth="1"/>
+    <col min="2" max="2" width="31.4214285714286" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:12">
+    <row r="1" ht="18.5" spans="1:12">
       <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" ht="14.25" spans="1:12">
+    <row r="2" ht="16" spans="1:12">
       <c r="A2" s="13" t="s">
         <v>42</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:12">
+    <row r="3" ht="34" spans="1:12">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="15" t="s">
@@ -2455,7 +2455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" ht="16" spans="1:12">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
+    <row r="5" ht="16" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
@@ -2509,7 +2509,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" ht="16" spans="1:12">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2523,7 +2523,7 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" ht="14.25" spans="1:12">
+    <row r="7" ht="16" spans="1:12">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2537,7 +2537,7 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" ht="18.75" spans="1:12">
+    <row r="8" ht="18.5" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>50</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" ht="16" spans="1:12">
       <c r="A9" s="13" t="s">
         <v>42</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:12">
+    <row r="10" ht="34" spans="1:12">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="15" t="s">
@@ -2625,7 +2625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:12">
+    <row r="11" ht="16" spans="1:12">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:12">
+    <row r="12" ht="16" spans="1:12">
       <c r="A12" s="16" t="s">
         <v>54</v>
       </c>
@@ -2704,9 +2704,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:5">
+    <row r="1" ht="34" customHeight="true" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>55</v>
       </c>
@@ -2791,9 +2791,9 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:13">
+    <row r="1" ht="16" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" ht="14.25" spans="1:13">
+    <row r="2" ht="16" spans="1:13">
       <c r="A2" s="8" t="s">
         <v>62</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:13">
+    <row r="3" ht="16" spans="1:13">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2866,7 +2866,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" ht="14.25" spans="1:13">
+    <row r="4" ht="16" spans="1:13">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
         <v>75</v>
@@ -2905,7 +2905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:13">
+    <row r="5" ht="16" spans="1:13">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2920,7 +2920,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" ht="14.25" spans="1:13">
+    <row r="6" ht="16" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>87</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" ht="14.25" spans="1:13">
+    <row r="7" ht="16" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" ht="14.25" spans="1:13">
+    <row r="8" ht="16" spans="1:13">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2975,7 +2975,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:13">
+    <row r="9" ht="16" spans="1:13">
       <c r="A9" s="7" t="s">
         <v>91</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" ht="14.25" spans="1:13">
+    <row r="10" ht="16" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>62</v>
       </c>
@@ -3015,7 +3015,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:13">
+    <row r="11" ht="16" spans="1:13">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3030,7 +3030,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" ht="14.25" spans="1:13">
+    <row r="12" ht="16" spans="1:13">
       <c r="A12" s="7" t="s">
         <v>95</v>
       </c>
@@ -3047,7 +3047,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" ht="14.25" spans="1:13">
+    <row r="13" ht="16" spans="1:13">
       <c r="A13" s="8" t="s">
         <v>96</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:13">
+    <row r="14" ht="16" spans="1:13">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3085,7 +3085,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:13">
+    <row r="15" ht="16" spans="1:13">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:13">
+    <row r="16" ht="16" spans="1:13">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3140,37 +3140,38 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="10.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="12.575" customWidth="1"/>
-    <col min="7" max="8" width="13.6416666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.1416666666667" customWidth="1"/>
-    <col min="10" max="10" width="11.3583333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.6416666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.2833333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.575" customWidth="1"/>
-    <col min="16" max="16" width="12.3583333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.8571428571429" customWidth="true"/>
+    <col min="5" max="5" width="13" customWidth="true"/>
+    <col min="6" max="6" width="12.5714285714286" customWidth="true"/>
+    <col min="7" max="7" width="9" customWidth="true"/>
+    <col min="8" max="8" width="10.3571428571429" customWidth="true"/>
+    <col min="9" max="9" width="10.1428571428571" customWidth="true"/>
+    <col min="10" max="10" width="11.3571428571429" customWidth="true"/>
+    <col min="11" max="11" width="13.6428571428571" customWidth="true"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="true"/>
+    <col min="13" max="13" width="11.5714285714286" customWidth="true"/>
+    <col min="16" max="16" width="12.3571428571429" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:16">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="14.5" spans="1:20">
+      <c r="A1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3209,18 +3210,38 @@
       <c r="P1" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="5">
+      <c r="Q1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" spans="1:20">
+      <c r="A2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
         <v>2814</v>
       </c>
-      <c r="B2" s="5">
+      <c r="F2" s="5">
         <v>28</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -3231,18 +3252,30 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="5">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" ht="14.5" spans="1:20">
+      <c r="A3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
         <v>2532.6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="F3" s="5">
         <v>27</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -3253,18 +3286,30 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="5">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" ht="14.5" spans="1:20">
+      <c r="A4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
         <v>2251.2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="F4" s="5">
         <v>26</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3275,18 +3320,30 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="5">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" ht="14.5" spans="1:20">
+      <c r="A5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
         <v>1969.8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="F5" s="5">
         <v>25</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -3297,18 +3354,30 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="5">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" ht="14.5" spans="1:20">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
         <v>1688.4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="F6" s="5">
         <v>24</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -3319,18 +3388,30 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="5">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" ht="14.5" spans="1:20">
+      <c r="A7" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
         <v>1407</v>
       </c>
-      <c r="B7" s="5">
+      <c r="F7" s="5">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -3341,18 +3422,30 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="5">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" ht="14.5" spans="1:20">
+      <c r="A8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
         <v>1125.6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="F8" s="5">
         <v>22</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -3363,18 +3456,30 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="5">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" ht="14.5" spans="1:20">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
         <v>844.2</v>
       </c>
-      <c r="B9" s="5">
+      <c r="F9" s="5">
         <v>20</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -3385,18 +3490,30 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="5">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" ht="14.5" spans="1:20">
+      <c r="A10" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5">
         <v>562.8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="F10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -3407,18 +3524,30 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="6">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" ht="14.5" spans="1:20">
+      <c r="A11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6">
         <v>281.4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="F11" s="6">
         <v>16</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -3429,6 +3558,10 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3445,219 +3578,219 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:7">
+    <row r="1" ht="16" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="16" spans="1:7">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2814</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>28</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="16" spans="1:7">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>2532.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>27</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="16" spans="1:7">
       <c r="A4" s="1">
         <v>2021</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>2251.2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>26</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" ht="16" spans="1:7">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>1969.8</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>25</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="16" spans="1:7">
       <c r="A6" s="1">
         <v>2021</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1688.4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>24</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="16" spans="1:7">
       <c r="A7" s="1">
         <v>2021</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>1407</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>23</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="16" spans="1:7">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1125.6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>22</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="16" spans="1:7">
       <c r="A9" s="1">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>844.2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="16" spans="1:7">
       <c r="A10" s="1">
         <v>2021</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>562.8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>18</v>
       </c>
       <c r="G10" s="1"/>

--- a/model/template.xlsx
+++ b/model/template.xlsx
@@ -526,11 +526,11 @@
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -641,23 +641,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,6 +678,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -686,17 +732,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,48 +748,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,16 +763,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,19 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,13 +845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +875,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,31 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,19 +947,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,19 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,12 +1059,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1089,60 +1132,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1156,6 +1145,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1164,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,133 +1176,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,19 +1370,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5"/>
@@ -1850,9 +1850,7 @@
       <c r="B6" s="30">
         <v>100</v>
       </c>
-      <c r="C6" s="30">
-        <v>80</v>
-      </c>
+      <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
